--- a/前端训练营-番茄钟-谭风定评估需求.xlsx
+++ b/前端训练营-番茄钟-谭风定评估需求.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamofig\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8156A5-BF11-4D45-A737-3C3F0CA38F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,330 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>左边番茄钟表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到修改标题应该同时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数取右边设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取右边task标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完task进入休息阶段，替换成绿色break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始倒计时，不重复执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时，上面的小番茄变化，右边的同理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停/pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置/reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边操作列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建task任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建成功，取代左边欢迎页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化没有task显示欢迎界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行/TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完/DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商榷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.倒计工作时，圆环满灰色一点点填充红色，直至充满变成红色圆环；
+2.倒计休息时，圆环满淡绿色一点点减少，直至变成灰色圆环；
+3.圆环中间时间倒计时，结束显示00:00:00, 上面的小番茄变实心，并播放音频；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前选中的小番茄的圆形状态同步左边的形态以及任何操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.长度50字;
+2.未填写/超长，红框提示；
+3.初始化空值，小番茄长度十个，默认有一个task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标+文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展开/收起；
+2.修改标题；
+3.设置多个番茄钟；
+4.归档/archive，弹窗确实是否归档
+5.保存/save；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改标题同上；
+4.弹窗全屏，但是倒计时可以继续工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.归档是否从列表删除，删除后左边是否回初始化；
+2.设置番茄钟的时候，当前正执行的钟是否保持倒计时还是怎么样
+3.弹窗是否暂停倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会和右边产生联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.归档/archive;
+2.重新执行/redo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重新执行的排序在最后面还是原来的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.重新执行的task回到TODO，弹窗提示，弹窗不影响其他地方的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认展示本周的使用情况
+2.可以切换上一周和下周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边倒计时到，提示音响起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是自定义，内置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边收起/展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边收起只剩图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同屏幕下的展示，是否要求到苹果官网汉堡模式布局，或者其他要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介于是内部项目，打算用本地存储操作数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化数据空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边倒计时完成时，也会同步到右边的图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂停/播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当前播放会有读条的圆环；
+2.播放完不会自动播放下一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.只影响当前task的倒计时，不重置当前所有task的循序；
+2.初始化不可选，只有在倒计时有变化的时候才可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.初始化不可选，与开始互斥，倒计时结束不可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.与暂停互斥，初始化可操作，结束不可操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应式布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.仅统计已使用的番茄钟
+2.本周的下一周不可操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.空心代表未开始;
+2.实心代表已经结束的; 
+3.个数代表多少个task;
+4.半圆等代表进行时;
+5.当前小番茄的填充同步下面的大圆环的填充状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">项目备注：
+-  计划是并行：个人提升计划+番茄钟
+    上午时间属于个人提升计划
+    下午时间规划参与番茄钟
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.考虑工作时番茄钟是否播放音频（一般权衡工作时因保持静音执行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +371,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +667,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:J29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>